--- a/Konkurent.xlsx
+++ b/Konkurent.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/liza_kuznetsova/Desktop/инфа_прога/MilLimon/Аналитика/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4381C642-AAB0-2B4E-B028-59DD54E2E1FC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{189D017B-B8FE-8940-BC33-C9C0AF426D65}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="740" windowWidth="29400" windowHeight="18380" xr2:uid="{01D9E88F-72EF-6045-96DD-6845B0DE0AD1}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="29400" windowHeight="17140" xr2:uid="{01D9E88F-72EF-6045-96DD-6845B0DE0AD1}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="13">
   <si>
     <t>Дата</t>
   </si>
@@ -80,7 +80,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2">
+  <fonts count="4">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -93,6 +93,22 @@
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Liberation Sans"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Liberation Sans"/>
+      <charset val="204"/>
     </font>
   </fonts>
   <fills count="2">
@@ -115,11 +131,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -434,34 +452,34 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1A4C5371-3E6D-4944-B86A-580AB9520770}">
-  <dimension ref="A1:H49"/>
+  <dimension ref="A1:H57"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="166" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A34" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E50" sqref="E50"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <sheetData>
-    <row r="1" spans="1:8">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:8" s="5" customFormat="1">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1"/>
-      <c r="G1" s="1"/>
-      <c r="H1" s="1"/>
+      <c r="F1" s="4"/>
+      <c r="G1" s="4"/>
+      <c r="H1" s="4"/>
     </row>
     <row r="2" spans="1:8">
       <c r="A2" s="2">
@@ -1388,6 +1406,142 @@
         <v>255</v>
       </c>
       <c r="E49" s="1">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5">
+      <c r="A50" s="3">
+        <v>45842</v>
+      </c>
+      <c r="B50" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C50" s="1">
+        <v>92</v>
+      </c>
+      <c r="D50" s="1">
+        <v>5</v>
+      </c>
+      <c r="E50" s="1">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5">
+      <c r="A51" s="3">
+        <v>45842</v>
+      </c>
+      <c r="B51" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C51" s="1">
+        <v>268719</v>
+      </c>
+      <c r="D51" s="1">
+        <v>31044</v>
+      </c>
+      <c r="E51" s="1">
+        <v>92910</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5">
+      <c r="A52" s="3">
+        <v>45842</v>
+      </c>
+      <c r="B52" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C52" s="1">
+        <v>492489</v>
+      </c>
+      <c r="D52" s="1">
+        <v>68726</v>
+      </c>
+      <c r="E52" s="1">
+        <v>529767</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5">
+      <c r="A53" s="3">
+        <v>45842</v>
+      </c>
+      <c r="B53" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C53" s="1">
+        <v>70072</v>
+      </c>
+      <c r="D53" s="1">
+        <v>18337</v>
+      </c>
+      <c r="E53" s="1">
+        <v>370211</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5">
+      <c r="A54" s="3">
+        <v>45842</v>
+      </c>
+      <c r="B54" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C54" s="1">
+        <v>41253</v>
+      </c>
+      <c r="D54" s="1">
+        <v>14076</v>
+      </c>
+      <c r="E54" s="1">
+        <v>3092</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5">
+      <c r="A55" s="3">
+        <v>45842</v>
+      </c>
+      <c r="B55" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C55" s="1">
+        <v>62898</v>
+      </c>
+      <c r="D55" s="1">
+        <v>35449</v>
+      </c>
+      <c r="E55" s="1">
+        <v>45812</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5">
+      <c r="A56" s="3">
+        <v>45842</v>
+      </c>
+      <c r="B56" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C56" s="1">
+        <v>27781</v>
+      </c>
+      <c r="D56" s="1">
+        <v>17930</v>
+      </c>
+      <c r="E56" s="1">
+        <v>1793</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5">
+      <c r="A57" s="3">
+        <v>45842</v>
+      </c>
+      <c r="B57" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C57" s="1">
+        <v>4055</v>
+      </c>
+      <c r="D57" s="1">
+        <v>254</v>
+      </c>
+      <c r="E57" s="1">
         <v>16</v>
       </c>
     </row>
